--- a/biology/Zoologie/Chicoreus_ramosus/Chicoreus_ramosus.xlsx
+++ b/biology/Zoologie/Chicoreus_ramosus/Chicoreus_ramosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chicoreus ramosus est une espèce de mollusques gastéropodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chicorée [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chicorée 
 Murex rameux
 Murex géant
 Porte-montre</t>
@@ -544,7 +558,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chicoreus inflatus Lamarck 1822
 Murex frondosus Morch, 1852
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce tropicale vit dans l’océan Indien et l’océan Pacifique.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle demeure en dessous de 10 mètres de profondeur.
 </t>
@@ -639,7 +659,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se caractérise par une grande coquille, de couleur blanc grisâtre, comportant des excroissances en forme de feuille, épineuses et bien développées. La coquille présente l'aspect d'une corde enroulée et possède des sillons. La columelle est concave, lisse et rose. L’ouverture est blanche et le bord du labre est garni de petites dents plus fortement sur la partie antérieure, près du canal siphonal que sur la partie postérieure. Taille maximum : 300 mm.
 </t>
